--- a/上課用目錄/1108python應用基礎班/output.xlsx
+++ b/上課用目錄/1108python應用基礎班/output.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="臺灣_日本_法國" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="美國_印度_法國" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -463,43 +463,43 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>臺灣</t>
+          <t>美國</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Taiwan</t>
+          <t>United States</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5273449</v>
+        <v>93624526</v>
       </c>
       <c r="D2" t="n">
-        <v>9893</v>
+        <v>1065330</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1876001834852295</v>
+        <v>1.137874919655134</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>日本</t>
+          <t>印度</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Japan</t>
+          <t>India</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>18797522</v>
+        <v>44418585</v>
       </c>
       <c r="D3" t="n">
-        <v>39604</v>
+        <v>527829</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2106873448532205</v>
+        <v>1.188306651371267</v>
       </c>
     </row>
     <row r="4">
